--- a/natmiOut/OldD7/LR-pairs_lrc2p/Itgav-Thy1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Itgav-Thy1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="H2">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="I2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="J2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.95331843738234</v>
+        <v>10.847907</v>
       </c>
       <c r="N2">
-        <v>8.95331843738234</v>
+        <v>32.54372100000001</v>
       </c>
       <c r="O2">
-        <v>0.1046582363840349</v>
+        <v>0.1203140543159393</v>
       </c>
       <c r="P2">
-        <v>0.1046582363840349</v>
+        <v>0.1203140543159394</v>
       </c>
       <c r="Q2">
-        <v>97.01690783563288</v>
+        <v>145.809636073983</v>
       </c>
       <c r="R2">
-        <v>97.01690783563288</v>
+        <v>1312.286724665847</v>
       </c>
       <c r="S2">
-        <v>0.008248603718046485</v>
+        <v>0.01079587891189046</v>
       </c>
       <c r="T2">
-        <v>0.008248603718046485</v>
+        <v>0.01079587891189046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="H3">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="I3">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="J3">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.1284796370763</v>
+        <v>65.55027766666667</v>
       </c>
       <c r="N3">
-        <v>65.1284796370763</v>
+        <v>196.650833</v>
       </c>
       <c r="O3">
-        <v>0.7613078731490732</v>
+        <v>0.7270176327666009</v>
       </c>
       <c r="P3">
-        <v>0.7613078731490732</v>
+        <v>0.7270176327666009</v>
       </c>
       <c r="Q3">
-        <v>705.7231070932921</v>
+        <v>881.0789151423591</v>
       </c>
       <c r="R3">
-        <v>705.7231070932921</v>
+        <v>7929.710236281232</v>
       </c>
       <c r="S3">
-        <v>0.06000222409627237</v>
+        <v>0.06523588931303805</v>
       </c>
       <c r="T3">
-        <v>0.06000222409627237</v>
+        <v>0.06523588931303806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="H4">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="I4">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="J4">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.346781003336405</v>
+        <v>0.4248426666666666</v>
       </c>
       <c r="N4">
-        <v>0.346781003336405</v>
+        <v>1.274528</v>
       </c>
       <c r="O4">
-        <v>0.004053635361514664</v>
+        <v>0.004711926795930482</v>
       </c>
       <c r="P4">
-        <v>0.004053635361514664</v>
+        <v>0.004711926795930482</v>
       </c>
       <c r="Q4">
-        <v>3.757670507882953</v>
+        <v>5.710424565344</v>
       </c>
       <c r="R4">
-        <v>3.757670507882953</v>
+        <v>51.393821088096</v>
       </c>
       <c r="S4">
-        <v>0.0003194859083225981</v>
+        <v>0.0004228050614683527</v>
       </c>
       <c r="T4">
-        <v>0.0003194859083225981</v>
+        <v>0.0004228050614683528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="H5">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="I5">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="J5">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1195702769186</v>
+        <v>13.34022966666667</v>
       </c>
       <c r="N5">
-        <v>11.1195702769186</v>
+        <v>40.020689</v>
       </c>
       <c r="O5">
-        <v>0.1299802551053773</v>
+        <v>0.1479563861215291</v>
       </c>
       <c r="P5">
-        <v>0.1299802551053773</v>
+        <v>0.1479563861215292</v>
       </c>
       <c r="Q5">
-        <v>120.4901101499364</v>
+        <v>179.309615471447</v>
       </c>
       <c r="R5">
-        <v>120.4901101499364</v>
+        <v>1613.786539243023</v>
       </c>
       <c r="S5">
-        <v>0.01024435011116238</v>
+        <v>0.01327624804841543</v>
       </c>
       <c r="T5">
-        <v>0.01024435011116238</v>
+        <v>0.01327624804841544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="H6">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="I6">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="J6">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.95331843738234</v>
+        <v>10.847907</v>
       </c>
       <c r="N6">
-        <v>8.95331843738234</v>
+        <v>32.54372100000001</v>
       </c>
       <c r="O6">
-        <v>0.1046582363840349</v>
+        <v>0.1203140543159393</v>
       </c>
       <c r="P6">
-        <v>0.1046582363840349</v>
+        <v>0.1203140543159394</v>
       </c>
       <c r="Q6">
-        <v>488.3998962275712</v>
+        <v>593.5056435072451</v>
       </c>
       <c r="R6">
-        <v>488.3998962275712</v>
+        <v>5341.550791565206</v>
       </c>
       <c r="S6">
-        <v>0.0415248979769752</v>
+        <v>0.04394370107046117</v>
       </c>
       <c r="T6">
-        <v>0.0415248979769752</v>
+        <v>0.04394370107046119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="H7">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="I7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="J7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>65.1284796370763</v>
+        <v>65.55027766666667</v>
       </c>
       <c r="N7">
-        <v>65.1284796370763</v>
+        <v>196.650833</v>
       </c>
       <c r="O7">
-        <v>0.7613078731490732</v>
+        <v>0.7270176327666009</v>
       </c>
       <c r="P7">
-        <v>0.7613078731490732</v>
+        <v>0.7270176327666009</v>
       </c>
       <c r="Q7">
-        <v>3552.732198533015</v>
+        <v>3586.356310819552</v>
       </c>
       <c r="R7">
-        <v>3552.732198533015</v>
+        <v>32277.20679737597</v>
       </c>
       <c r="S7">
-        <v>0.3020615754079886</v>
+        <v>0.2655371037813771</v>
       </c>
       <c r="T7">
-        <v>0.3020615754079886</v>
+        <v>0.2655371037813771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="H8">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="I8">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="J8">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.346781003336405</v>
+        <v>0.4248426666666666</v>
       </c>
       <c r="N8">
-        <v>0.346781003336405</v>
+        <v>1.274528</v>
       </c>
       <c r="O8">
-        <v>0.004053635361514664</v>
+        <v>0.004711926795930482</v>
       </c>
       <c r="P8">
-        <v>0.004053635361514664</v>
+        <v>0.004711926795930482</v>
       </c>
       <c r="Q8">
-        <v>18.91676334620696</v>
+        <v>23.24379442682666</v>
       </c>
       <c r="R8">
-        <v>18.91676334620696</v>
+        <v>209.19414984144</v>
       </c>
       <c r="S8">
-        <v>0.001608347327821328</v>
+        <v>0.001720991813994864</v>
       </c>
       <c r="T8">
-        <v>0.001608347327821328</v>
+        <v>0.001720991813994864</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="H9">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="I9">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="J9">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.1195702769186</v>
+        <v>13.34022966666667</v>
       </c>
       <c r="N9">
-        <v>11.1195702769186</v>
+        <v>40.020689</v>
       </c>
       <c r="O9">
-        <v>0.1299802551053773</v>
+        <v>0.1479563861215291</v>
       </c>
       <c r="P9">
-        <v>0.1299802551053773</v>
+        <v>0.1479563861215292</v>
       </c>
       <c r="Q9">
-        <v>606.5680571202846</v>
+        <v>729.8644423158717</v>
       </c>
       <c r="R9">
-        <v>606.5680571202846</v>
+        <v>6568.779980842845</v>
       </c>
       <c r="S9">
-        <v>0.05157183054821048</v>
+        <v>0.05403983134104098</v>
       </c>
       <c r="T9">
-        <v>0.05157183054821048</v>
+        <v>0.054039831341041</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="H10">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="I10">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="J10">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.95331843738234</v>
+        <v>10.847907</v>
       </c>
       <c r="N10">
-        <v>8.95331843738234</v>
+        <v>32.54372100000001</v>
       </c>
       <c r="O10">
-        <v>0.1046582363840349</v>
+        <v>0.1203140543159393</v>
       </c>
       <c r="P10">
-        <v>0.1046582363840349</v>
+        <v>0.1203140543159394</v>
       </c>
       <c r="Q10">
-        <v>498.4224817415427</v>
+        <v>690.7633673087701</v>
       </c>
       <c r="R10">
-        <v>498.4224817415427</v>
+        <v>6216.870305778931</v>
       </c>
       <c r="S10">
-        <v>0.04237704156698787</v>
+        <v>0.051144751958995</v>
       </c>
       <c r="T10">
-        <v>0.04237704156698787</v>
+        <v>0.05114475195899502</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="H11">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="I11">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="J11">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>65.1284796370763</v>
+        <v>65.55027766666667</v>
       </c>
       <c r="N11">
-        <v>65.1284796370763</v>
+        <v>196.650833</v>
       </c>
       <c r="O11">
-        <v>0.7613078731490732</v>
+        <v>0.7270176327666009</v>
       </c>
       <c r="P11">
-        <v>0.7613078731490732</v>
+        <v>0.7270176327666009</v>
       </c>
       <c r="Q11">
-        <v>3625.638770674148</v>
+        <v>4174.052241510877</v>
       </c>
       <c r="R11">
-        <v>3625.638770674148</v>
+        <v>37566.47017359789</v>
       </c>
       <c r="S11">
-        <v>0.308260262167334</v>
+        <v>0.3090506483974205</v>
       </c>
       <c r="T11">
-        <v>0.308260262167334</v>
+        <v>0.3090506483974205</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="H12">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="I12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="J12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.346781003336405</v>
+        <v>0.4248426666666666</v>
       </c>
       <c r="N12">
-        <v>0.346781003336405</v>
+        <v>1.274528</v>
       </c>
       <c r="O12">
-        <v>0.004053635361514664</v>
+        <v>0.004711926795930482</v>
       </c>
       <c r="P12">
-        <v>0.004053635361514664</v>
+        <v>0.004711926795930482</v>
       </c>
       <c r="Q12">
-        <v>19.30495933017289</v>
+        <v>27.05275321802667</v>
       </c>
       <c r="R12">
-        <v>19.30495933017289</v>
+        <v>243.47477896224</v>
       </c>
       <c r="S12">
-        <v>0.001641352655532835</v>
+        <v>0.00200301060916771</v>
       </c>
       <c r="T12">
-        <v>0.001641352655532835</v>
+        <v>0.00200301060916771</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="H13">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="I13">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="J13">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.1195702769186</v>
+        <v>13.34022966666667</v>
       </c>
       <c r="N13">
-        <v>11.1195702769186</v>
+        <v>40.020689</v>
       </c>
       <c r="O13">
-        <v>0.1299802551053773</v>
+        <v>0.1479563861215291</v>
       </c>
       <c r="P13">
-        <v>0.1299802551053773</v>
+        <v>0.1479563861215292</v>
       </c>
       <c r="Q13">
-        <v>619.0156032182448</v>
+        <v>849.4672719095967</v>
       </c>
       <c r="R13">
-        <v>619.0156032182448</v>
+        <v>7645.20544718637</v>
       </c>
       <c r="S13">
-        <v>0.05263014994134288</v>
+        <v>0.06289533431450817</v>
       </c>
       <c r="T13">
-        <v>0.05263014994134288</v>
+        <v>0.06289533431450818</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="H14">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="I14">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="J14">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.95331843738234</v>
+        <v>10.847907</v>
       </c>
       <c r="N14">
-        <v>8.95331843738234</v>
+        <v>32.54372100000001</v>
       </c>
       <c r="O14">
-        <v>0.1046582363840349</v>
+        <v>0.1203140543159393</v>
       </c>
       <c r="P14">
-        <v>0.1046582363840349</v>
+        <v>0.1203140543159394</v>
       </c>
       <c r="Q14">
-        <v>147.1106810721285</v>
+        <v>194.888492660904</v>
       </c>
       <c r="R14">
-        <v>147.1106810721285</v>
+        <v>1753.996433948136</v>
       </c>
       <c r="S14">
-        <v>0.01250769312202532</v>
+        <v>0.0144297223745927</v>
       </c>
       <c r="T14">
-        <v>0.01250769312202532</v>
+        <v>0.0144297223745927</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="H15">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="I15">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="J15">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.1284796370763</v>
+        <v>65.55027766666667</v>
       </c>
       <c r="N15">
-        <v>65.1284796370763</v>
+        <v>196.650833</v>
       </c>
       <c r="O15">
-        <v>0.7613078731490732</v>
+        <v>0.7270176327666009</v>
       </c>
       <c r="P15">
-        <v>0.7613078731490732</v>
+        <v>0.7270176327666009</v>
       </c>
       <c r="Q15">
-        <v>1070.116634810964</v>
+        <v>1177.646048031237</v>
       </c>
       <c r="R15">
-        <v>1070.116634810964</v>
+        <v>10598.81443228113</v>
       </c>
       <c r="S15">
-        <v>0.09098381147747828</v>
+        <v>0.08719399127476518</v>
       </c>
       <c r="T15">
-        <v>0.09098381147747828</v>
+        <v>0.0871939912747652</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="H16">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="I16">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="J16">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.346781003336405</v>
+        <v>0.4248426666666666</v>
       </c>
       <c r="N16">
-        <v>0.346781003336405</v>
+        <v>1.274528</v>
       </c>
       <c r="O16">
-        <v>0.004053635361514664</v>
+        <v>0.004711926795930482</v>
       </c>
       <c r="P16">
-        <v>0.004053635361514664</v>
+        <v>0.004711926795930482</v>
       </c>
       <c r="Q16">
-        <v>5.697908539775983</v>
+        <v>7.632527355249778</v>
       </c>
       <c r="R16">
-        <v>5.697908539775983</v>
+        <v>68.692746197248</v>
       </c>
       <c r="S16">
-        <v>0.0004844494698379025</v>
+        <v>0.0005651193112995556</v>
       </c>
       <c r="T16">
-        <v>0.0004844494698379025</v>
+        <v>0.0005651193112995557</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="H17">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="I17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="J17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.1195702769186</v>
+        <v>13.34022966666667</v>
       </c>
       <c r="N17">
-        <v>11.1195702769186</v>
+        <v>40.020689</v>
       </c>
       <c r="O17">
-        <v>0.1299802551053773</v>
+        <v>0.1479563861215291</v>
       </c>
       <c r="P17">
-        <v>0.1299802551053773</v>
+        <v>0.1479563861215292</v>
       </c>
       <c r="Q17">
-        <v>182.7040519230263</v>
+        <v>239.6644118987138</v>
       </c>
       <c r="R17">
-        <v>182.7040519230263</v>
+        <v>2156.979707088424</v>
       </c>
       <c r="S17">
-        <v>0.01553392450466159</v>
+        <v>0.01774497241756454</v>
       </c>
       <c r="T17">
-        <v>0.01553392450466159</v>
+        <v>0.01774497241756455</v>
       </c>
     </row>
   </sheetData>
